--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value504.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value504.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.717378821573533</v>
+        <v>1.252640604972839</v>
       </c>
       <c r="B1">
-        <v>3.226478502066624</v>
+        <v>2.628923177719116</v>
       </c>
       <c r="C1">
-        <v>2.894727724463106</v>
+        <v>4.784129619598389</v>
       </c>
       <c r="D1">
-        <v>0.9801381375116223</v>
+        <v>2.249109029769897</v>
       </c>
       <c r="E1">
-        <v>0.7129342667753084</v>
+        <v>1.04899263381958</v>
       </c>
     </row>
   </sheetData>
